--- a/所有组员每周任务/Date0112-2019/PRD2018-G10-教师优先级排序.xlsx
+++ b/所有组员每周任务/Date0112-2019/PRD2018-G10-教师优先级排序.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2834673-EC9D-48B7-AE97-B4550DCFA36F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -312,19 +313,22 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>删除课程资料文件夹</t>
-  </si>
-  <si>
-    <t>在线答疑结束结束提示</t>
+    <t>教师删除课程资料文件夹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师在线答疑结束结束提示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>教师查看博客</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000"/>
   </numFmts>
@@ -485,9 +489,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -499,6 +500,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -772,41 +776,41 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L62" sqref="L62"/>
+      <selection activeCell="J64" sqref="A2:J64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -838,7 +842,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -846,8 +850,8 @@
         <v>19</v>
       </c>
       <c r="C3" s="7">
-        <f t="shared" ref="C3:C33" si="0">B3/1240</f>
-        <v>1.532258064516129E-2</v>
+        <f t="shared" ref="C3:C34" si="0">B3/1278</f>
+        <v>1.486697965571205E-2</v>
       </c>
       <c r="D3" s="4">
         <v>6</v>
@@ -859,22 +863,22 @@
         <v>2</v>
       </c>
       <c r="G3" s="6">
-        <f t="shared" ref="G3:G33" si="1">F3/251</f>
-        <v>7.9681274900398405E-3</v>
+        <f t="shared" ref="G3:G34" si="1">F3/263</f>
+        <v>7.6045627376425855E-3</v>
       </c>
       <c r="H3" s="5">
         <v>2</v>
       </c>
       <c r="I3" s="6">
-        <f t="shared" ref="I3:I33" si="2">H3/120</f>
-        <v>1.6666666666666666E-2</v>
+        <f t="shared" ref="I3:I34" si="2">H3/124</f>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="J3" s="7">
-        <f t="shared" ref="J3:J33" si="3">C3/(G3+I3)</f>
-        <v>0.62198939222676286</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="J3:J41" si="3">C3/(G3+I3)</f>
+        <v>0.62641077588124205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -883,7 +887,7 @@
       </c>
       <c r="C4" s="7">
         <f t="shared" si="0"/>
-        <v>1.7741935483870968E-2</v>
+        <v>1.7214397496087636E-2</v>
       </c>
       <c r="D4" s="4">
         <v>7</v>
@@ -896,21 +900,21 @@
       </c>
       <c r="G4" s="6">
         <f t="shared" si="1"/>
-        <v>1.1952191235059761E-2</v>
+        <v>1.1406844106463879E-2</v>
       </c>
       <c r="H4" s="5">
         <v>2</v>
       </c>
       <c r="I4" s="6">
         <f t="shared" si="2"/>
-        <v>1.6666666666666666E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="J4" s="7">
         <f t="shared" si="3"/>
-        <v>0.61993862734825245</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.62516250684010022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -919,7 +923,7 @@
       </c>
       <c r="C5" s="7">
         <f t="shared" si="0"/>
-        <v>1.7741935483870968E-2</v>
+        <v>1.7214397496087636E-2</v>
       </c>
       <c r="D5" s="4">
         <v>7</v>
@@ -932,21 +936,21 @@
       </c>
       <c r="G5" s="6">
         <f t="shared" si="1"/>
-        <v>1.1952191235059761E-2</v>
+        <v>1.1406844106463879E-2</v>
       </c>
       <c r="H5" s="5">
         <v>2</v>
       </c>
       <c r="I5" s="6">
         <f t="shared" si="2"/>
-        <v>1.6666666666666666E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="J5" s="7">
         <f t="shared" si="3"/>
-        <v>0.61993862734825245</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.62516250684010022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -955,7 +959,7 @@
       </c>
       <c r="C6" s="7">
         <f t="shared" si="0"/>
-        <v>1.7741935483870968E-2</v>
+        <v>1.7214397496087636E-2</v>
       </c>
       <c r="D6" s="4">
         <v>7</v>
@@ -968,21 +972,21 @@
       </c>
       <c r="G6" s="6">
         <f t="shared" si="1"/>
-        <v>1.1952191235059761E-2</v>
+        <v>1.1406844106463879E-2</v>
       </c>
       <c r="H6" s="5">
         <v>2</v>
       </c>
       <c r="I6" s="6">
         <f t="shared" si="2"/>
-        <v>1.6666666666666666E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="J6" s="7">
         <f t="shared" si="3"/>
-        <v>0.61993862734825245</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.62516250684010022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -991,7 +995,7 @@
       </c>
       <c r="C7" s="7">
         <f t="shared" si="0"/>
-        <v>1.7741935483870968E-2</v>
+        <v>1.7214397496087636E-2</v>
       </c>
       <c r="D7" s="4">
         <v>7</v>
@@ -1004,21 +1008,21 @@
       </c>
       <c r="G7" s="6">
         <f t="shared" si="1"/>
-        <v>1.1952191235059761E-2</v>
+        <v>1.1406844106463879E-2</v>
       </c>
       <c r="H7" s="5">
         <v>2</v>
       </c>
       <c r="I7" s="6">
         <f t="shared" si="2"/>
-        <v>1.6666666666666666E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="J7" s="7">
         <f t="shared" si="3"/>
-        <v>0.61993862734825245</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.62516250684010022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1027,7 +1031,7 @@
       </c>
       <c r="C8" s="7">
         <f t="shared" si="0"/>
-        <v>1.7741935483870968E-2</v>
+        <v>1.7214397496087636E-2</v>
       </c>
       <c r="D8" s="4">
         <v>7</v>
@@ -1040,21 +1044,21 @@
       </c>
       <c r="G8" s="6">
         <f t="shared" si="1"/>
-        <v>1.1952191235059761E-2</v>
+        <v>1.1406844106463879E-2</v>
       </c>
       <c r="H8" s="5">
         <v>2</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" si="2"/>
-        <v>1.6666666666666666E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="J8" s="7">
         <f t="shared" si="3"/>
-        <v>0.61993862734825245</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.62516250684010022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -1063,7 +1067,7 @@
       </c>
       <c r="C9" s="7">
         <f t="shared" si="0"/>
-        <v>1.935483870967742E-2</v>
+        <v>1.8779342723004695E-2</v>
       </c>
       <c r="D9" s="4">
         <v>8</v>
@@ -1076,21 +1080,21 @@
       </c>
       <c r="G9" s="6">
         <f t="shared" si="1"/>
-        <v>1.5936254980079681E-2</v>
+        <v>1.5209125475285171E-2</v>
       </c>
       <c r="H9" s="5">
         <v>2</v>
       </c>
       <c r="I9" s="6">
         <f t="shared" si="2"/>
-        <v>1.6666666666666666E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="J9" s="7">
         <f t="shared" si="3"/>
-        <v>0.59365350502595104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.59924845878926536</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -1099,7 +1103,7 @@
       </c>
       <c r="C10" s="7">
         <f t="shared" si="0"/>
-        <v>1.935483870967742E-2</v>
+        <v>1.8779342723004695E-2</v>
       </c>
       <c r="D10" s="4">
         <v>8</v>
@@ -1112,21 +1116,21 @@
       </c>
       <c r="G10" s="6">
         <f t="shared" si="1"/>
-        <v>1.5936254980079681E-2</v>
+        <v>1.5209125475285171E-2</v>
       </c>
       <c r="H10" s="5">
         <v>2</v>
       </c>
       <c r="I10" s="6">
         <f t="shared" si="2"/>
-        <v>1.6666666666666666E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="J10" s="7">
         <f t="shared" si="3"/>
-        <v>0.59365350502595104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.59924845878926536</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1135,7 +1139,7 @@
       </c>
       <c r="C11" s="7">
         <f t="shared" si="0"/>
-        <v>1.935483870967742E-2</v>
+        <v>1.8779342723004695E-2</v>
       </c>
       <c r="D11" s="4">
         <v>8</v>
@@ -1148,21 +1152,21 @@
       </c>
       <c r="G11" s="6">
         <f t="shared" si="1"/>
-        <v>1.5936254980079681E-2</v>
+        <v>1.5209125475285171E-2</v>
       </c>
       <c r="H11" s="5">
         <v>2</v>
       </c>
       <c r="I11" s="6">
         <f t="shared" si="2"/>
-        <v>1.6666666666666666E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="J11" s="7">
         <f t="shared" si="3"/>
-        <v>0.59365350502595104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.59924845878926536</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -1171,7 +1175,7 @@
       </c>
       <c r="C12" s="7">
         <f t="shared" si="0"/>
-        <v>1.935483870967742E-2</v>
+        <v>1.8779342723004695E-2</v>
       </c>
       <c r="D12" s="4">
         <v>8</v>
@@ -1184,21 +1188,21 @@
       </c>
       <c r="G12" s="6">
         <f t="shared" si="1"/>
-        <v>1.5936254980079681E-2</v>
+        <v>1.5209125475285171E-2</v>
       </c>
       <c r="H12" s="5">
         <v>2</v>
       </c>
       <c r="I12" s="6">
         <f t="shared" si="2"/>
-        <v>1.6666666666666666E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="J12" s="7">
         <f t="shared" si="3"/>
-        <v>0.59365350502595104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.59924845878926536</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -1207,7 +1211,7 @@
       </c>
       <c r="C13" s="7">
         <f t="shared" si="0"/>
-        <v>1.935483870967742E-2</v>
+        <v>1.8779342723004695E-2</v>
       </c>
       <c r="D13" s="4">
         <v>8</v>
@@ -1220,21 +1224,21 @@
       </c>
       <c r="G13" s="6">
         <f t="shared" si="1"/>
-        <v>1.5936254980079681E-2</v>
+        <v>1.5209125475285171E-2</v>
       </c>
       <c r="H13" s="5">
         <v>2</v>
       </c>
       <c r="I13" s="6">
         <f t="shared" si="2"/>
-        <v>1.6666666666666666E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="J13" s="7">
         <f t="shared" si="3"/>
-        <v>0.59365350502595104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.59924845878926536</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -1243,7 +1247,7 @@
       </c>
       <c r="C14" s="7">
         <f t="shared" si="0"/>
-        <v>1.6935483870967744E-2</v>
+        <v>1.6431924882629109E-2</v>
       </c>
       <c r="D14" s="4">
         <v>7</v>
@@ -1256,21 +1260,21 @@
       </c>
       <c r="G14" s="6">
         <f t="shared" si="1"/>
-        <v>1.1952191235059761E-2</v>
+        <v>1.1406844106463879E-2</v>
       </c>
       <c r="H14" s="5">
         <v>2</v>
       </c>
       <c r="I14" s="6">
         <f t="shared" si="2"/>
-        <v>1.6666666666666666E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="J14" s="7">
         <f t="shared" si="3"/>
-        <v>0.5917595988324228</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.59674602925645936</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -1279,7 +1283,7 @@
       </c>
       <c r="C15" s="7">
         <f t="shared" si="0"/>
-        <v>1.6935483870967744E-2</v>
+        <v>1.6431924882629109E-2</v>
       </c>
       <c r="D15" s="4">
         <v>7</v>
@@ -1292,21 +1296,21 @@
       </c>
       <c r="G15" s="6">
         <f t="shared" si="1"/>
-        <v>1.1952191235059761E-2</v>
+        <v>1.1406844106463879E-2</v>
       </c>
       <c r="H15" s="5">
         <v>2</v>
       </c>
       <c r="I15" s="6">
         <f t="shared" si="2"/>
-        <v>1.6666666666666666E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="J15" s="7">
         <f t="shared" si="3"/>
-        <v>0.5917595988324228</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.59674602925645936</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -1315,7 +1319,7 @@
       </c>
       <c r="C16" s="7">
         <f t="shared" si="0"/>
-        <v>1.6935483870967744E-2</v>
+        <v>1.6431924882629109E-2</v>
       </c>
       <c r="D16" s="4">
         <v>7</v>
@@ -1328,21 +1332,21 @@
       </c>
       <c r="G16" s="6">
         <f t="shared" si="1"/>
-        <v>1.1952191235059761E-2</v>
+        <v>1.1406844106463879E-2</v>
       </c>
       <c r="H16" s="5">
         <v>2</v>
       </c>
       <c r="I16" s="6">
         <f t="shared" si="2"/>
-        <v>1.6666666666666666E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="J16" s="7">
         <f t="shared" si="3"/>
-        <v>0.5917595988324228</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.59674602925645936</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
@@ -1351,7 +1355,7 @@
       </c>
       <c r="C17" s="7">
         <f t="shared" si="0"/>
-        <v>1.6129032258064516E-2</v>
+        <v>1.5649452269170579E-2</v>
       </c>
       <c r="D17" s="4">
         <v>7</v>
@@ -1364,21 +1368,21 @@
       </c>
       <c r="G17" s="6">
         <f t="shared" si="1"/>
-        <v>1.1952191235059761E-2</v>
+        <v>1.1406844106463879E-2</v>
       </c>
       <c r="H17" s="5">
         <v>2</v>
       </c>
       <c r="I17" s="6">
         <f t="shared" si="2"/>
-        <v>1.6666666666666666E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="J17" s="7">
         <f t="shared" si="3"/>
-        <v>0.56358057031659303</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.5683295516728184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
@@ -1387,7 +1391,7 @@
       </c>
       <c r="C18" s="7">
         <f t="shared" si="0"/>
-        <v>1.6129032258064516E-2</v>
+        <v>1.5649452269170579E-2</v>
       </c>
       <c r="D18" s="4">
         <v>7</v>
@@ -1400,21 +1404,21 @@
       </c>
       <c r="G18" s="6">
         <f t="shared" si="1"/>
-        <v>1.1952191235059761E-2</v>
+        <v>1.1406844106463879E-2</v>
       </c>
       <c r="H18" s="5">
         <v>2</v>
       </c>
       <c r="I18" s="6">
         <f t="shared" si="2"/>
-        <v>1.6666666666666666E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="J18" s="7">
         <f t="shared" si="3"/>
-        <v>0.56358057031659303</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.5683295516728184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>69</v>
       </c>
@@ -1423,7 +1427,7 @@
       </c>
       <c r="C19" s="7">
         <f t="shared" si="0"/>
-        <v>1.7741935483870968E-2</v>
+        <v>1.7214397496087636E-2</v>
       </c>
       <c r="D19" s="4">
         <v>7</v>
@@ -1436,21 +1440,21 @@
       </c>
       <c r="G19" s="6">
         <f t="shared" si="1"/>
-        <v>1.5936254980079681E-2</v>
+        <v>1.5209125475285171E-2</v>
       </c>
       <c r="H19" s="5">
         <v>2</v>
       </c>
       <c r="I19" s="6">
         <f t="shared" si="2"/>
-        <v>1.6666666666666666E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="J19" s="7">
         <f t="shared" si="3"/>
-        <v>0.54418237960712179</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.5493110872234932</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>68</v>
       </c>
@@ -1459,7 +1463,7 @@
       </c>
       <c r="C20" s="7">
         <f t="shared" si="0"/>
-        <v>1.7741935483870968E-2</v>
+        <v>1.7214397496087636E-2</v>
       </c>
       <c r="D20" s="4">
         <v>7</v>
@@ -1472,21 +1476,21 @@
       </c>
       <c r="G20" s="6">
         <f t="shared" si="1"/>
-        <v>1.5936254980079681E-2</v>
+        <v>1.5209125475285171E-2</v>
       </c>
       <c r="H20" s="5">
         <v>2</v>
       </c>
       <c r="I20" s="6">
         <f t="shared" si="2"/>
-        <v>1.6666666666666666E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="J20" s="7">
         <f t="shared" si="3"/>
-        <v>0.54418237960712179</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.5493110872234932</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>67</v>
       </c>
@@ -1495,7 +1499,7 @@
       </c>
       <c r="C21" s="7">
         <f t="shared" si="0"/>
-        <v>1.7741935483870968E-2</v>
+        <v>1.7214397496087636E-2</v>
       </c>
       <c r="D21" s="4">
         <v>7</v>
@@ -1508,21 +1512,21 @@
       </c>
       <c r="G21" s="6">
         <f t="shared" si="1"/>
-        <v>1.5936254980079681E-2</v>
+        <v>1.5209125475285171E-2</v>
       </c>
       <c r="H21" s="5">
         <v>2</v>
       </c>
       <c r="I21" s="6">
         <f t="shared" si="2"/>
-        <v>1.6666666666666666E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="J21" s="7">
         <f t="shared" si="3"/>
-        <v>0.54418237960712179</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.5493110872234932</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>66</v>
       </c>
@@ -1531,7 +1535,7 @@
       </c>
       <c r="C22" s="7">
         <f t="shared" si="0"/>
-        <v>1.7741935483870968E-2</v>
+        <v>1.7214397496087636E-2</v>
       </c>
       <c r="D22" s="4">
         <v>7</v>
@@ -1544,21 +1548,21 @@
       </c>
       <c r="G22" s="6">
         <f t="shared" si="1"/>
-        <v>1.5936254980079681E-2</v>
+        <v>1.5209125475285171E-2</v>
       </c>
       <c r="H22" s="5">
         <v>2</v>
       </c>
       <c r="I22" s="6">
         <f t="shared" si="2"/>
-        <v>1.6666666666666666E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="J22" s="7">
         <f t="shared" si="3"/>
-        <v>0.54418237960712179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.5493110872234932</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>65</v>
       </c>
@@ -1567,7 +1571,7 @@
       </c>
       <c r="C23" s="7">
         <f t="shared" si="0"/>
-        <v>1.7741935483870968E-2</v>
+        <v>1.7214397496087636E-2</v>
       </c>
       <c r="D23" s="4">
         <v>7</v>
@@ -1580,21 +1584,21 @@
       </c>
       <c r="G23" s="6">
         <f t="shared" si="1"/>
-        <v>1.5936254980079681E-2</v>
+        <v>1.5209125475285171E-2</v>
       </c>
       <c r="H23" s="5">
         <v>2</v>
       </c>
       <c r="I23" s="6">
         <f t="shared" si="2"/>
-        <v>1.6666666666666666E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="J23" s="7">
         <f t="shared" si="3"/>
-        <v>0.54418237960712179</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.5493110872234932</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>64</v>
       </c>
@@ -1603,7 +1607,7 @@
       </c>
       <c r="C24" s="7">
         <f t="shared" si="0"/>
-        <v>1.532258064516129E-2</v>
+        <v>1.486697965571205E-2</v>
       </c>
       <c r="D24" s="4">
         <v>6</v>
@@ -1616,21 +1620,21 @@
       </c>
       <c r="G24" s="6">
         <f t="shared" si="1"/>
-        <v>1.1952191235059761E-2</v>
+        <v>1.1406844106463879E-2</v>
       </c>
       <c r="H24" s="5">
         <v>2</v>
       </c>
       <c r="I24" s="6">
         <f t="shared" si="2"/>
-        <v>1.6666666666666666E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="J24" s="7">
         <f t="shared" si="3"/>
-        <v>0.53540154180076338</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.53991307408917744</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>63</v>
       </c>
@@ -1639,7 +1643,7 @@
       </c>
       <c r="C25" s="7">
         <f t="shared" si="0"/>
-        <v>1.532258064516129E-2</v>
+        <v>1.486697965571205E-2</v>
       </c>
       <c r="D25" s="4">
         <v>6</v>
@@ -1652,21 +1656,21 @@
       </c>
       <c r="G25" s="6">
         <f t="shared" si="1"/>
-        <v>1.1952191235059761E-2</v>
+        <v>1.1406844106463879E-2</v>
       </c>
       <c r="H25" s="5">
         <v>2</v>
       </c>
       <c r="I25" s="6">
         <f t="shared" si="2"/>
-        <v>1.6666666666666666E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="J25" s="7">
         <f t="shared" si="3"/>
-        <v>0.53540154180076338</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.53991307408917744</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>62</v>
       </c>
@@ -1675,7 +1679,7 @@
       </c>
       <c r="C26" s="7">
         <f t="shared" si="0"/>
-        <v>1.6935483870967744E-2</v>
+        <v>1.6431924882629109E-2</v>
       </c>
       <c r="D26" s="4">
         <v>7</v>
@@ -1688,21 +1692,21 @@
       </c>
       <c r="G26" s="6">
         <f t="shared" si="1"/>
-        <v>1.5936254980079681E-2</v>
+        <v>1.5209125475285171E-2</v>
       </c>
       <c r="H26" s="5">
         <v>2</v>
       </c>
       <c r="I26" s="6">
         <f t="shared" si="2"/>
-        <v>1.6666666666666666E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="J26" s="7">
         <f t="shared" si="3"/>
-        <v>0.51944681689770722</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.52434240144060718</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>61</v>
       </c>
@@ -1711,7 +1715,7 @@
       </c>
       <c r="C27" s="7">
         <f t="shared" si="0"/>
-        <v>1.6935483870967744E-2</v>
+        <v>1.6431924882629109E-2</v>
       </c>
       <c r="D27" s="4">
         <v>7</v>
@@ -1724,21 +1728,21 @@
       </c>
       <c r="G27" s="6">
         <f t="shared" si="1"/>
-        <v>1.5936254980079681E-2</v>
+        <v>1.5209125475285171E-2</v>
       </c>
       <c r="H27" s="5">
         <v>2</v>
       </c>
       <c r="I27" s="6">
         <f t="shared" si="2"/>
-        <v>1.6666666666666666E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="J27" s="7">
         <f t="shared" si="3"/>
-        <v>0.51944681689770722</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.52434240144060718</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>60</v>
       </c>
@@ -1747,7 +1751,7 @@
       </c>
       <c r="C28" s="7">
         <f t="shared" si="0"/>
-        <v>1.6935483870967744E-2</v>
+        <v>1.6431924882629109E-2</v>
       </c>
       <c r="D28" s="4">
         <v>7</v>
@@ -1760,21 +1764,21 @@
       </c>
       <c r="G28" s="6">
         <f t="shared" si="1"/>
-        <v>1.5936254980079681E-2</v>
+        <v>1.5209125475285171E-2</v>
       </c>
       <c r="H28" s="5">
         <v>2</v>
       </c>
       <c r="I28" s="6">
         <f t="shared" si="2"/>
-        <v>1.6666666666666666E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="J28" s="7">
         <f t="shared" si="3"/>
-        <v>0.51944681689770722</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.52434240144060718</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>59</v>
       </c>
@@ -1783,7 +1787,7 @@
       </c>
       <c r="C29" s="7">
         <f t="shared" si="0"/>
-        <v>1.6935483870967744E-2</v>
+        <v>1.6431924882629109E-2</v>
       </c>
       <c r="D29" s="4">
         <v>7</v>
@@ -1796,21 +1800,21 @@
       </c>
       <c r="G29" s="6">
         <f t="shared" si="1"/>
-        <v>1.5936254980079681E-2</v>
+        <v>1.5209125475285171E-2</v>
       </c>
       <c r="H29" s="5">
         <v>2</v>
       </c>
       <c r="I29" s="6">
         <f t="shared" si="2"/>
-        <v>1.6666666666666666E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="J29" s="7">
         <f t="shared" si="3"/>
-        <v>0.51944681689770722</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.52434240144060718</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
@@ -1819,7 +1823,7 @@
       </c>
       <c r="C30" s="7">
         <f t="shared" si="0"/>
-        <v>1.6935483870967744E-2</v>
+        <v>1.6431924882629109E-2</v>
       </c>
       <c r="D30" s="4">
         <v>7</v>
@@ -1832,21 +1836,21 @@
       </c>
       <c r="G30" s="6">
         <f t="shared" si="1"/>
-        <v>1.5936254980079681E-2</v>
+        <v>1.5209125475285171E-2</v>
       </c>
       <c r="H30" s="5">
         <v>2</v>
       </c>
       <c r="I30" s="6">
         <f t="shared" si="2"/>
-        <v>1.6666666666666666E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="J30" s="7">
         <f t="shared" si="3"/>
-        <v>0.51944681689770722</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.52434240144060718</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>50</v>
       </c>
@@ -1855,7 +1859,7 @@
       </c>
       <c r="C31" s="7">
         <f t="shared" si="0"/>
-        <v>1.6129032258064516E-2</v>
+        <v>1.5649452269170579E-2</v>
       </c>
       <c r="D31" s="4">
         <v>7</v>
@@ -1868,21 +1872,21 @@
       </c>
       <c r="G31" s="6">
         <f t="shared" si="1"/>
-        <v>1.5936254980079681E-2</v>
+        <v>1.5209125475285171E-2</v>
       </c>
       <c r="H31" s="5">
         <v>2</v>
       </c>
       <c r="I31" s="6">
         <f t="shared" si="2"/>
-        <v>1.6666666666666666E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="J31" s="7">
         <f t="shared" si="3"/>
-        <v>0.49471125418829254</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.4993737156577211</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>49</v>
       </c>
@@ -1891,7 +1895,7 @@
       </c>
       <c r="C32" s="7">
         <f t="shared" si="0"/>
-        <v>1.6129032258064516E-2</v>
+        <v>1.5649452269170579E-2</v>
       </c>
       <c r="D32" s="4">
         <v>7</v>
@@ -1904,21 +1908,21 @@
       </c>
       <c r="G32" s="6">
         <f t="shared" si="1"/>
-        <v>1.5936254980079681E-2</v>
+        <v>1.5209125475285171E-2</v>
       </c>
       <c r="H32" s="5">
         <v>2</v>
       </c>
       <c r="I32" s="6">
         <f t="shared" si="2"/>
-        <v>1.6666666666666666E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="J32" s="7">
         <f t="shared" si="3"/>
-        <v>0.49471125418829254</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.4993737156577211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>48</v>
       </c>
@@ -1927,7 +1931,7 @@
       </c>
       <c r="C33" s="7">
         <f t="shared" si="0"/>
-        <v>1.6129032258064516E-2</v>
+        <v>1.5649452269170579E-2</v>
       </c>
       <c r="D33" s="4">
         <v>7</v>
@@ -1940,21 +1944,21 @@
       </c>
       <c r="G33" s="6">
         <f t="shared" si="1"/>
-        <v>1.5936254980079681E-2</v>
+        <v>1.5209125475285171E-2</v>
       </c>
       <c r="H33" s="5">
         <v>2</v>
       </c>
       <c r="I33" s="6">
         <f t="shared" si="2"/>
-        <v>1.6666666666666666E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="J33" s="7">
         <f t="shared" si="3"/>
-        <v>0.49471125418829254</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.4993737156577211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>47</v>
       </c>
@@ -1962,8 +1966,8 @@
         <v>20</v>
       </c>
       <c r="C34" s="7">
-        <f t="shared" ref="C34:C61" si="4">B34/1240</f>
-        <v>1.6129032258064516E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.5649452269170579E-2</v>
       </c>
       <c r="D34" s="4">
         <v>7</v>
@@ -1975,22 +1979,22 @@
         <v>4</v>
       </c>
       <c r="G34" s="6">
-        <f t="shared" ref="G34:G61" si="5">F34/251</f>
-        <v>1.5936254980079681E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.5209125475285171E-2</v>
       </c>
       <c r="H34" s="5">
         <v>2</v>
       </c>
       <c r="I34" s="6">
-        <f t="shared" ref="I34:I61" si="6">H34/120</f>
-        <v>1.6666666666666666E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="J34" s="7">
-        <f t="shared" ref="J34:J61" si="7">C34/(G34+I34)</f>
-        <v>0.49471125418829254</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0.4993737156577211</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>57</v>
       </c>
@@ -1998,8 +2002,8 @@
         <v>22</v>
       </c>
       <c r="C35" s="7">
-        <f t="shared" si="4"/>
-        <v>1.7741935483870968E-2</v>
+        <f t="shared" ref="C35:C64" si="4">B35/1278</f>
+        <v>1.7214397496087636E-2</v>
       </c>
       <c r="D35" s="4">
         <v>7</v>
@@ -2011,22 +2015,22 @@
         <v>5</v>
       </c>
       <c r="G35" s="6">
-        <f t="shared" si="5"/>
-        <v>1.9920318725099601E-2</v>
+        <f t="shared" ref="G35:G64" si="5">F35/263</f>
+        <v>1.9011406844106463E-2</v>
       </c>
       <c r="H35" s="5">
         <v>2</v>
       </c>
       <c r="I35" s="6">
-        <f t="shared" si="6"/>
-        <v>1.6666666666666666E-2</v>
+        <f t="shared" ref="I35:I64" si="6">H35/124</f>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="J35" s="7">
-        <f t="shared" si="7"/>
-        <v>0.48492477021251684</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0.48987428546458117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>56</v>
       </c>
@@ -2035,7 +2039,7 @@
       </c>
       <c r="C36" s="7">
         <f t="shared" si="4"/>
-        <v>1.7741935483870968E-2</v>
+        <v>1.7214397496087636E-2</v>
       </c>
       <c r="D36" s="4">
         <v>7</v>
@@ -2048,21 +2052,21 @@
       </c>
       <c r="G36" s="6">
         <f t="shared" si="5"/>
-        <v>1.9920318725099601E-2</v>
+        <v>1.9011406844106463E-2</v>
       </c>
       <c r="H36" s="5">
         <v>2</v>
       </c>
       <c r="I36" s="6">
         <f t="shared" si="6"/>
-        <v>1.6666666666666666E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="J36" s="7">
-        <f t="shared" si="7"/>
-        <v>0.48492477021251684</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0.48987428546458117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>55</v>
       </c>
@@ -2071,7 +2075,7 @@
       </c>
       <c r="C37" s="7">
         <f t="shared" si="4"/>
-        <v>1.7741935483870968E-2</v>
+        <v>1.7214397496087636E-2</v>
       </c>
       <c r="D37" s="4">
         <v>7</v>
@@ -2084,21 +2088,21 @@
       </c>
       <c r="G37" s="6">
         <f t="shared" si="5"/>
-        <v>1.9920318725099601E-2</v>
+        <v>1.9011406844106463E-2</v>
       </c>
       <c r="H37" s="5">
         <v>2</v>
       </c>
       <c r="I37" s="6">
         <f t="shared" si="6"/>
-        <v>1.6666666666666666E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="J37" s="7">
-        <f t="shared" si="7"/>
-        <v>0.48492477021251684</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0.48987428546458117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>54</v>
       </c>
@@ -2107,7 +2111,7 @@
       </c>
       <c r="C38" s="7">
         <f t="shared" si="4"/>
-        <v>1.7741935483870968E-2</v>
+        <v>1.7214397496087636E-2</v>
       </c>
       <c r="D38" s="4">
         <v>7</v>
@@ -2120,21 +2124,21 @@
       </c>
       <c r="G38" s="6">
         <f t="shared" si="5"/>
-        <v>1.9920318725099601E-2</v>
+        <v>1.9011406844106463E-2</v>
       </c>
       <c r="H38" s="5">
         <v>2</v>
       </c>
       <c r="I38" s="6">
         <f t="shared" si="6"/>
-        <v>1.6666666666666666E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="J38" s="7">
-        <f t="shared" si="7"/>
-        <v>0.48492477021251684</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0.48987428546458117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>53</v>
       </c>
@@ -2143,7 +2147,7 @@
       </c>
       <c r="C39" s="7">
         <f t="shared" si="4"/>
-        <v>1.7741935483870968E-2</v>
+        <v>1.7214397496087636E-2</v>
       </c>
       <c r="D39" s="4">
         <v>7</v>
@@ -2156,21 +2160,21 @@
       </c>
       <c r="G39" s="6">
         <f t="shared" si="5"/>
-        <v>1.9920318725099601E-2</v>
+        <v>1.9011406844106463E-2</v>
       </c>
       <c r="H39" s="5">
         <v>2</v>
       </c>
       <c r="I39" s="6">
         <f t="shared" si="6"/>
-        <v>1.6666666666666666E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="J39" s="7">
-        <f t="shared" si="7"/>
-        <v>0.48492477021251684</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0.48987428546458117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>52</v>
       </c>
@@ -2179,7 +2183,7 @@
       </c>
       <c r="C40" s="7">
         <f t="shared" si="4"/>
-        <v>1.7741935483870968E-2</v>
+        <v>1.7214397496087636E-2</v>
       </c>
       <c r="D40" s="4">
         <v>7</v>
@@ -2192,21 +2196,21 @@
       </c>
       <c r="G40" s="6">
         <f t="shared" si="5"/>
-        <v>1.9920318725099601E-2</v>
+        <v>1.9011406844106463E-2</v>
       </c>
       <c r="H40" s="5">
         <v>2</v>
       </c>
       <c r="I40" s="6">
         <f t="shared" si="6"/>
-        <v>1.6666666666666666E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="J40" s="7">
-        <f t="shared" si="7"/>
-        <v>0.48492477021251684</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0.48987428546458117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>51</v>
       </c>
@@ -2215,7 +2219,7 @@
       </c>
       <c r="C41" s="7">
         <f t="shared" si="4"/>
-        <v>1.7741935483870968E-2</v>
+        <v>1.7214397496087636E-2</v>
       </c>
       <c r="D41" s="4">
         <v>7</v>
@@ -2228,138 +2232,137 @@
       </c>
       <c r="G41" s="6">
         <f t="shared" si="5"/>
-        <v>1.9920318725099601E-2</v>
+        <v>1.9011406844106463E-2</v>
       </c>
       <c r="H41" s="5">
         <v>2</v>
       </c>
       <c r="I41" s="6">
         <f t="shared" si="6"/>
-        <v>1.6666666666666666E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="J41" s="7">
-        <f t="shared" si="7"/>
-        <v>0.48492477021251684</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="3">
-        <v>19</v>
+        <f t="shared" si="3"/>
+        <v>0.48987428546458117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="11">
+        <v>22</v>
       </c>
       <c r="C42" s="7">
         <f t="shared" si="4"/>
-        <v>1.532258064516129E-2</v>
-      </c>
-      <c r="D42" s="4">
-        <v>6</v>
-      </c>
-      <c r="E42" s="4">
-        <v>7</v>
-      </c>
-      <c r="F42" s="5">
-        <v>4</v>
+        <v>1.7214397496087636E-2</v>
+      </c>
+      <c r="D42" s="12">
+        <v>7</v>
+      </c>
+      <c r="E42" s="12">
+        <v>8</v>
+      </c>
+      <c r="F42" s="13">
+        <v>5</v>
       </c>
       <c r="G42" s="6">
         <f t="shared" si="5"/>
-        <v>1.5936254980079681E-2</v>
-      </c>
-      <c r="H42" s="5">
+        <v>1.9011406844106463E-2</v>
+      </c>
+      <c r="H42" s="13">
         <v>2</v>
       </c>
       <c r="I42" s="6">
         <f t="shared" si="6"/>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="J42" s="7">
-        <f t="shared" si="7"/>
-        <v>0.46997569147887791</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.6129032258064516E-2</v>
+      </c>
+      <c r="J42" s="11">
+        <v>0.4849</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B43" s="3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C43" s="7">
         <f t="shared" si="4"/>
-        <v>1.6935483870967744E-2</v>
+        <v>1.486697965571205E-2</v>
       </c>
       <c r="D43" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E43" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F43" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G43" s="6">
         <f t="shared" si="5"/>
-        <v>1.9920318725099601E-2</v>
+        <v>1.5209125475285171E-2</v>
       </c>
       <c r="H43" s="5">
         <v>2</v>
       </c>
       <c r="I43" s="6">
         <f t="shared" si="6"/>
-        <v>1.6666666666666666E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="J43" s="7">
-        <f t="shared" si="7"/>
-        <v>0.46288273520285705</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="J43:J52" si="7">C43/(G43+I43)</f>
+        <v>0.47440502987483502</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B44" s="3">
         <v>21</v>
       </c>
       <c r="C44" s="7">
         <f t="shared" si="4"/>
-        <v>1.6935483870967744E-2</v>
+        <v>1.6431924882629109E-2</v>
       </c>
       <c r="D44" s="4">
         <v>7</v>
       </c>
       <c r="E44" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F44" s="5">
         <v>5</v>
       </c>
       <c r="G44" s="6">
         <f t="shared" si="5"/>
-        <v>1.9920318725099601E-2</v>
+        <v>1.9011406844106463E-2</v>
       </c>
       <c r="H44" s="5">
         <v>2</v>
       </c>
       <c r="I44" s="6">
         <f t="shared" si="6"/>
-        <v>1.6666666666666666E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="J44" s="7">
         <f t="shared" si="7"/>
-        <v>0.46288273520285705</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.46760727248891848</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" s="3">
         <v>21</v>
       </c>
       <c r="C45" s="7">
         <f t="shared" si="4"/>
-        <v>1.6935483870967744E-2</v>
+        <v>1.6431924882629109E-2</v>
       </c>
       <c r="D45" s="4">
         <v>7</v>
@@ -2372,30 +2375,30 @@
       </c>
       <c r="G45" s="6">
         <f t="shared" si="5"/>
-        <v>1.9920318725099601E-2</v>
+        <v>1.9011406844106463E-2</v>
       </c>
       <c r="H45" s="5">
         <v>2</v>
       </c>
       <c r="I45" s="6">
         <f t="shared" si="6"/>
-        <v>1.6666666666666666E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="J45" s="7">
         <f t="shared" si="7"/>
-        <v>0.46288273520285705</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.46760727248891848</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B46" s="3">
         <v>21</v>
       </c>
       <c r="C46" s="7">
         <f t="shared" si="4"/>
-        <v>1.6935483870967744E-2</v>
+        <v>1.6431924882629109E-2</v>
       </c>
       <c r="D46" s="4">
         <v>7</v>
@@ -2408,174 +2411,174 @@
       </c>
       <c r="G46" s="6">
         <f t="shared" si="5"/>
-        <v>1.9920318725099601E-2</v>
+        <v>1.9011406844106463E-2</v>
       </c>
       <c r="H46" s="5">
         <v>2</v>
       </c>
       <c r="I46" s="6">
         <f t="shared" si="6"/>
-        <v>1.6666666666666666E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="J46" s="7">
         <f t="shared" si="7"/>
-        <v>0.46288273520285705</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.46760727248891848</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B47" s="3">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C47" s="7">
         <f t="shared" si="4"/>
-        <v>1.2903225806451613E-2</v>
+        <v>1.6431924882629109E-2</v>
       </c>
       <c r="D47" s="4">
+        <v>7</v>
+      </c>
+      <c r="E47" s="4">
+        <v>7</v>
+      </c>
+      <c r="F47" s="5">
         <v>5</v>
-      </c>
-      <c r="E47" s="4">
-        <v>6</v>
-      </c>
-      <c r="F47" s="5">
-        <v>3</v>
       </c>
       <c r="G47" s="6">
         <f t="shared" si="5"/>
-        <v>1.1952191235059761E-2</v>
+        <v>1.9011406844106463E-2</v>
       </c>
       <c r="H47" s="5">
         <v>2</v>
       </c>
       <c r="I47" s="6">
         <f t="shared" si="6"/>
-        <v>1.6666666666666666E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="J47" s="7">
         <f t="shared" si="7"/>
-        <v>0.45086445625327448</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.46760727248891848</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B48" s="3">
         <v>16</v>
       </c>
       <c r="C48" s="7">
         <f t="shared" si="4"/>
-        <v>1.2903225806451613E-2</v>
+        <v>1.2519561815336464E-2</v>
       </c>
       <c r="D48" s="4">
         <v>5</v>
       </c>
       <c r="E48" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F48" s="5">
         <v>3</v>
       </c>
       <c r="G48" s="6">
         <f t="shared" si="5"/>
-        <v>1.1952191235059761E-2</v>
+        <v>1.1406844106463879E-2</v>
       </c>
       <c r="H48" s="5">
         <v>2</v>
       </c>
       <c r="I48" s="6">
         <f t="shared" si="6"/>
-        <v>1.6666666666666666E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="J48" s="7">
         <f t="shared" si="7"/>
-        <v>0.45086445625327448</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.45466364133825471</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B49" s="3">
         <v>16</v>
       </c>
       <c r="C49" s="7">
         <f t="shared" si="4"/>
-        <v>1.2903225806451613E-2</v>
+        <v>1.2519561815336464E-2</v>
       </c>
       <c r="D49" s="4">
         <v>5</v>
       </c>
       <c r="E49" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F49" s="5">
         <v>3</v>
       </c>
       <c r="G49" s="6">
         <f t="shared" si="5"/>
-        <v>1.1952191235059761E-2</v>
+        <v>1.1406844106463879E-2</v>
       </c>
       <c r="H49" s="5">
         <v>2</v>
       </c>
       <c r="I49" s="6">
         <f t="shared" si="6"/>
-        <v>1.6666666666666666E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="J49" s="7">
         <f t="shared" si="7"/>
-        <v>0.45086445625327448</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.45466364133825471</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B50" s="3">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C50" s="7">
         <f t="shared" si="4"/>
-        <v>1.7741935483870968E-2</v>
+        <v>1.2519561815336464E-2</v>
       </c>
       <c r="D50" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E50" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F50" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G50" s="6">
         <f t="shared" si="5"/>
-        <v>2.3904382470119521E-2</v>
+        <v>1.1406844106463879E-2</v>
       </c>
       <c r="H50" s="5">
         <v>2</v>
       </c>
       <c r="I50" s="6">
         <f t="shared" si="6"/>
-        <v>1.6666666666666666E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="J50" s="7">
         <f t="shared" si="7"/>
-        <v>0.43730531650915999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.45466364133825471</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B51" s="3">
         <v>22</v>
       </c>
       <c r="C51" s="7">
         <f t="shared" si="4"/>
-        <v>1.7741935483870968E-2</v>
+        <v>1.7214397496087636E-2</v>
       </c>
       <c r="D51" s="4">
         <v>7</v>
@@ -2588,479 +2591,489 @@
       </c>
       <c r="G51" s="6">
         <f t="shared" si="5"/>
-        <v>2.3904382470119521E-2</v>
+        <v>2.2813688212927757E-2</v>
       </c>
       <c r="H51" s="5">
         <v>2</v>
       </c>
       <c r="I51" s="6">
         <f t="shared" si="6"/>
-        <v>1.6666666666666666E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="J51" s="7">
         <f t="shared" si="7"/>
-        <v>0.43730531650915999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.44204404026961414</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B52" s="3">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C52" s="7">
         <f t="shared" si="4"/>
-        <v>1.2096774193548387E-2</v>
+        <v>1.7214397496087636E-2</v>
       </c>
       <c r="D52" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E52" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F52" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G52" s="6">
         <f t="shared" si="5"/>
-        <v>1.1952191235059761E-2</v>
+        <v>2.2813688212927757E-2</v>
       </c>
       <c r="H52" s="5">
         <v>2</v>
       </c>
       <c r="I52" s="6">
         <f t="shared" si="6"/>
-        <v>1.6666666666666666E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="J52" s="7">
         <f t="shared" si="7"/>
-        <v>0.42268542773744477</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B53" s="3">
-        <v>19</v>
+        <v>0.44204404026961414</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" s="11">
+        <v>22</v>
       </c>
       <c r="C53" s="7">
         <f t="shared" si="4"/>
-        <v>1.532258064516129E-2</v>
-      </c>
-      <c r="D53" s="4">
+        <v>1.7214397496087636E-2</v>
+      </c>
+      <c r="D53" s="12">
+        <v>7</v>
+      </c>
+      <c r="E53" s="12">
+        <v>8</v>
+      </c>
+      <c r="F53" s="13">
         <v>6</v>
-      </c>
-      <c r="E53" s="4">
-        <v>7</v>
-      </c>
-      <c r="F53" s="5">
-        <v>5</v>
       </c>
       <c r="G53" s="6">
         <f t="shared" si="5"/>
-        <v>1.9920318725099601E-2</v>
-      </c>
-      <c r="H53" s="5">
+        <v>2.2813688212927757E-2</v>
+      </c>
+      <c r="H53" s="13">
         <v>2</v>
       </c>
       <c r="I53" s="6">
         <f t="shared" si="6"/>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="J53" s="7">
-        <f t="shared" si="7"/>
-        <v>0.41879866518353726</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.6129032258064516E-2</v>
+      </c>
+      <c r="J53" s="11">
+        <v>0.43730000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B54" s="3">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C54" s="7">
         <f t="shared" si="4"/>
-        <v>1.6935483870967744E-2</v>
+        <v>1.1737089201877934E-2</v>
       </c>
       <c r="D54" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E54" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F54" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G54" s="6">
         <f t="shared" si="5"/>
-        <v>2.3904382470119521E-2</v>
+        <v>1.1406844106463879E-2</v>
       </c>
       <c r="H54" s="5">
         <v>2</v>
       </c>
       <c r="I54" s="6">
         <f t="shared" si="6"/>
-        <v>1.6666666666666666E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="J54" s="7">
-        <f t="shared" si="7"/>
-        <v>0.41742780212238001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="J54:J59" si="8">C54/(G54+I54)</f>
+        <v>0.4262471637546138</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="B55" s="3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C55" s="7">
         <f t="shared" si="4"/>
-        <v>1.6935483870967744E-2</v>
+        <v>1.486697965571205E-2</v>
       </c>
       <c r="D55" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E55" s="4">
         <v>7</v>
       </c>
       <c r="F55" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G55" s="6">
         <f t="shared" si="5"/>
-        <v>2.3904382470119521E-2</v>
+        <v>1.9011406844106463E-2</v>
       </c>
       <c r="H55" s="5">
         <v>2</v>
       </c>
       <c r="I55" s="6">
         <f t="shared" si="6"/>
-        <v>1.6666666666666666E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="J55" s="7">
-        <f t="shared" si="7"/>
-        <v>0.41742780212238001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0.42307324653759287</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B56" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C56" s="7">
         <f t="shared" si="4"/>
-        <v>1.7741935483870968E-2</v>
+        <v>1.6431924882629109E-2</v>
       </c>
       <c r="D56" s="4">
         <v>7</v>
       </c>
       <c r="E56" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F56" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G56" s="6">
         <f t="shared" si="5"/>
-        <v>2.7888446215139442E-2</v>
+        <v>2.2813688212927757E-2</v>
       </c>
       <c r="H56" s="5">
         <v>2</v>
       </c>
       <c r="I56" s="6">
         <f t="shared" si="6"/>
-        <v>1.6666666666666666E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="J56" s="7">
-        <f t="shared" si="7"/>
-        <v>0.39820200951877316</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0.42195112934826812</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="B57" s="3">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C57" s="7">
         <f t="shared" si="4"/>
-        <v>1.2903225806451613E-2</v>
+        <v>1.6431924882629109E-2</v>
       </c>
       <c r="D57" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E57" s="4">
+        <v>7</v>
+      </c>
+      <c r="F57" s="5">
         <v>6</v>
-      </c>
-      <c r="F57" s="5">
-        <v>4</v>
       </c>
       <c r="G57" s="6">
         <f t="shared" si="5"/>
-        <v>1.5936254980079681E-2</v>
+        <v>2.2813688212927757E-2</v>
       </c>
       <c r="H57" s="5">
         <v>2</v>
       </c>
       <c r="I57" s="6">
         <f t="shared" si="6"/>
-        <v>1.6666666666666666E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="J57" s="7">
-        <f t="shared" si="7"/>
-        <v>0.39576900335063403</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0.42195112934826812</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="B58" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C58" s="7">
         <f t="shared" si="4"/>
-        <v>1.6935483870967744E-2</v>
+        <v>1.7214397496087636E-2</v>
       </c>
       <c r="D58" s="4">
         <v>7</v>
       </c>
       <c r="E58" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F58" s="5">
         <v>7</v>
       </c>
       <c r="G58" s="6">
         <f t="shared" si="5"/>
-        <v>2.7888446215139442E-2</v>
+        <v>2.6615969581749048E-2</v>
       </c>
       <c r="H58" s="5">
         <v>2</v>
       </c>
       <c r="I58" s="6">
         <f t="shared" si="6"/>
-        <v>1.6666666666666666E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="J58" s="7">
-        <f t="shared" si="7"/>
-        <v>0.38010191817701078</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0.40272304960000715</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B59" s="3">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C59" s="7">
         <f t="shared" si="4"/>
-        <v>1.532258064516129E-2</v>
+        <v>1.2519561815336464E-2</v>
       </c>
       <c r="D59" s="4">
+        <v>5</v>
+      </c>
+      <c r="E59" s="4">
         <v>6</v>
       </c>
-      <c r="E59" s="4">
-        <v>7</v>
-      </c>
       <c r="F59" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G59" s="6">
         <f t="shared" si="5"/>
-        <v>2.3904382470119521E-2</v>
+        <v>1.5209125475285171E-2</v>
       </c>
       <c r="H59" s="5">
         <v>2</v>
       </c>
       <c r="I59" s="6">
         <f t="shared" si="6"/>
-        <v>1.6666666666666666E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="J59" s="7">
-        <f t="shared" si="7"/>
-        <v>0.37767277334881999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B60" s="3">
-        <v>15</v>
+        <f t="shared" si="8"/>
+        <v>0.39949897252617689</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" s="11">
+        <v>16</v>
       </c>
       <c r="C60" s="7">
         <f t="shared" si="4"/>
-        <v>1.2096774193548387E-2</v>
-      </c>
-      <c r="D60" s="4">
+        <v>1.2519561815336464E-2</v>
+      </c>
+      <c r="D60" s="12">
         <v>5</v>
       </c>
-      <c r="E60" s="4">
-        <v>5</v>
-      </c>
-      <c r="F60" s="5">
+      <c r="E60" s="12">
+        <v>6</v>
+      </c>
+      <c r="F60" s="13">
         <v>4</v>
       </c>
       <c r="G60" s="6">
         <f t="shared" si="5"/>
-        <v>1.5936254980079681E-2</v>
-      </c>
-      <c r="H60" s="5">
+        <v>1.5209125475285171E-2</v>
+      </c>
+      <c r="H60" s="13">
         <v>2</v>
       </c>
       <c r="I60" s="6">
         <f t="shared" si="6"/>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="J60" s="7">
-        <f t="shared" si="7"/>
-        <v>0.3710334406412194</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.6129032258064516E-2</v>
+      </c>
+      <c r="J60" s="11">
+        <v>0.39579999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="B61" s="3">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C61" s="7">
         <f t="shared" si="4"/>
-        <v>1.2096774193548387E-2</v>
+        <v>1.6431924882629109E-2</v>
       </c>
       <c r="D61" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E61" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F61" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G61" s="6">
         <f t="shared" si="5"/>
-        <v>2.3904382470119521E-2</v>
+        <v>2.6615969581749048E-2</v>
       </c>
       <c r="H61" s="5">
         <v>2</v>
       </c>
       <c r="I61" s="6">
         <f t="shared" si="6"/>
-        <v>1.6666666666666666E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="J61" s="7">
-        <f t="shared" si="7"/>
-        <v>0.29816271580170001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B62" s="12">
-        <v>22</v>
-      </c>
-      <c r="C62" s="12">
-        <v>1.77E-2</v>
-      </c>
-      <c r="D62" s="13">
-        <v>7</v>
-      </c>
-      <c r="E62" s="13">
-        <v>8</v>
-      </c>
-      <c r="F62" s="14">
+        <f>C61/(G61+I61)</f>
+        <v>0.38441745643637054</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62" s="3">
+        <v>19</v>
+      </c>
+      <c r="C62" s="7">
+        <f t="shared" si="4"/>
+        <v>1.486697965571205E-2</v>
+      </c>
+      <c r="D62" s="4">
+        <v>6</v>
+      </c>
+      <c r="E62" s="4">
+        <v>7</v>
+      </c>
+      <c r="F62" s="5">
+        <v>6</v>
+      </c>
+      <c r="G62" s="6">
+        <f t="shared" si="5"/>
+        <v>2.2813688212927757E-2</v>
+      </c>
+      <c r="H62" s="5">
+        <v>2</v>
+      </c>
+      <c r="I62" s="6">
+        <f t="shared" si="6"/>
+        <v>1.6129032258064516E-2</v>
+      </c>
+      <c r="J62" s="7">
+        <f>C62/(G62+I62)</f>
+        <v>0.38176530750557586</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B63" s="3">
+        <v>15</v>
+      </c>
+      <c r="C63" s="7">
+        <f t="shared" si="4"/>
+        <v>1.1737089201877934E-2</v>
+      </c>
+      <c r="D63" s="4">
         <v>5</v>
       </c>
-      <c r="G62" s="14">
-        <v>1.9900000000000001E-2</v>
-      </c>
-      <c r="H62" s="14">
-        <v>2</v>
-      </c>
-      <c r="I62" s="14">
-        <v>1.67E-2</v>
-      </c>
-      <c r="J62" s="12">
-        <v>0.4849</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B63" s="12">
-        <v>22</v>
-      </c>
-      <c r="C63" s="12">
-        <v>1.77E-2</v>
-      </c>
-      <c r="D63" s="13">
-        <v>7</v>
-      </c>
-      <c r="E63" s="13">
-        <v>8</v>
-      </c>
-      <c r="F63" s="14">
+      <c r="E63" s="4">
+        <v>5</v>
+      </c>
+      <c r="F63" s="5">
+        <v>4</v>
+      </c>
+      <c r="G63" s="6">
+        <f t="shared" si="5"/>
+        <v>1.5209125475285171E-2</v>
+      </c>
+      <c r="H63" s="5">
+        <v>2</v>
+      </c>
+      <c r="I63" s="6">
+        <f t="shared" si="6"/>
+        <v>1.6129032258064516E-2</v>
+      </c>
+      <c r="J63" s="7">
+        <f>C63/(G63+I63)</f>
+        <v>0.37453028674329081</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B64" s="3">
+        <v>15</v>
+      </c>
+      <c r="C64" s="7">
+        <f t="shared" si="4"/>
+        <v>1.1737089201877934E-2</v>
+      </c>
+      <c r="D64" s="4">
+        <v>5</v>
+      </c>
+      <c r="E64" s="4">
+        <v>5</v>
+      </c>
+      <c r="F64" s="5">
         <v>6</v>
       </c>
-      <c r="G63" s="14">
-        <v>2.3900000000000001E-2</v>
-      </c>
-      <c r="H63" s="14">
-        <v>2</v>
-      </c>
-      <c r="I63" s="14">
-        <v>1.67E-2</v>
-      </c>
-      <c r="J63" s="12">
-        <v>0.43730000000000002</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B64" s="12">
-        <v>16</v>
-      </c>
-      <c r="C64" s="12">
-        <v>1.29E-2</v>
-      </c>
-      <c r="D64" s="13">
-        <v>5</v>
-      </c>
-      <c r="E64" s="13">
-        <v>6</v>
-      </c>
-      <c r="F64" s="14">
-        <v>4</v>
-      </c>
-      <c r="G64" s="14">
-        <v>1.5900000000000001E-2</v>
-      </c>
-      <c r="H64" s="14">
-        <v>2</v>
-      </c>
-      <c r="I64" s="14">
-        <v>1.67E-2</v>
-      </c>
-      <c r="J64" s="12">
-        <v>0.39579999999999999</v>
+      <c r="G64" s="6">
+        <f t="shared" si="5"/>
+        <v>2.2813688212927757E-2</v>
+      </c>
+      <c r="H64" s="5">
+        <v>2</v>
+      </c>
+      <c r="I64" s="6">
+        <f t="shared" si="6"/>
+        <v>1.6129032258064516E-2</v>
+      </c>
+      <c r="J64" s="7">
+        <f>C64/(G64+I64)</f>
+        <v>0.30139366382019145</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:J62">
-    <sortCondition descending="1" ref="J3:J62"/>
+  <sortState ref="A3:J64">
+    <sortCondition descending="1" ref="J3:J64"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
@@ -3072,35 +3085,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3132,7 +3145,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
@@ -3168,7 +3181,7 @@
         <v>0.62736139179333972</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -3204,7 +3217,7 @@
         <v>0.62736139179333972</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -3240,7 +3253,7 @@
         <v>0.62736139179333972</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -3276,7 +3289,7 @@
         <v>0.62736139179333972</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -3312,7 +3325,7 @@
         <v>0.62736139179333972</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -3348,7 +3361,7 @@
         <v>0.62736139179333972</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -3384,7 +3397,7 @@
         <v>0.59848701811247473</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -3420,7 +3433,7 @@
         <v>0.59848701811247473</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -3456,7 +3469,7 @@
         <v>0.59848701811247473</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -3492,7 +3505,7 @@
         <v>0.59848701811247473</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -3528,7 +3541,7 @@
         <v>0.59848701811247473</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -3564,7 +3577,7 @@
         <v>0.63261861016032306</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
@@ -3600,7 +3613,7 @@
         <v>0.59884496489364247</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
@@ -3636,7 +3649,7 @@
         <v>0.59884496489364247</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
@@ -3672,7 +3685,7 @@
         <v>0.59884496489364247</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
@@ -3708,7 +3721,7 @@
         <v>0.57032853799394523</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
@@ -3744,7 +3757,7 @@
         <v>0.57032853799394523</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>69</v>
       </c>
@@ -3780,7 +3793,7 @@
         <v>0.54861309993643526</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>68</v>
       </c>
@@ -3816,7 +3829,7 @@
         <v>0.54861309993643526</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>67</v>
       </c>
@@ -3852,7 +3865,7 @@
         <v>0.54861309993643526</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>66</v>
       </c>
@@ -3888,7 +3901,7 @@
         <v>0.54861309993643526</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>65</v>
       </c>
@@ -3924,7 +3937,7 @@
         <v>0.54861309993643526</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>64</v>
       </c>
@@ -3960,7 +3973,7 @@
         <v>0.54181211109424798</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>63</v>
       </c>
@@ -3996,7 +4009,7 @@
         <v>0.54181211109424798</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>62</v>
       </c>
@@ -4032,7 +4045,7 @@
         <v>0.52367614084841541</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>61</v>
       </c>
@@ -4068,7 +4081,7 @@
         <v>0.52367614084841541</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>60</v>
       </c>
@@ -4104,7 +4117,7 @@
         <v>0.52367614084841541</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>59</v>
       </c>
@@ -4140,7 +4153,7 @@
         <v>0.52367614084841541</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>58</v>
       </c>
@@ -4176,7 +4189,7 @@
         <v>0.52367614084841541</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>57</v>
       </c>
@@ -4212,7 +4225,7 @@
         <v>0.48742948284315241</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>56</v>
       </c>
@@ -4248,7 +4261,7 @@
         <v>0.48742948284315241</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>55</v>
       </c>
@@ -4284,7 +4297,7 @@
         <v>0.48742948284315241</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>54</v>
       </c>
@@ -4320,7 +4333,7 @@
         <v>0.48742948284315241</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>53</v>
       </c>
@@ -4356,7 +4369,7 @@
         <v>0.48742948284315241</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>52</v>
       </c>
@@ -4392,7 +4405,7 @@
         <v>0.48742948284315241</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>51</v>
       </c>
@@ -4428,7 +4441,7 @@
         <v>0.48742948284315241</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>50</v>
       </c>
@@ -4464,7 +4477,7 @@
         <v>0.49873918176039561</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>49</v>
       </c>
@@ -4500,7 +4513,7 @@
         <v>0.49873918176039561</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>48</v>
       </c>
@@ -4536,7 +4549,7 @@
         <v>0.49873918176039561</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>47</v>
       </c>
@@ -4572,7 +4585,7 @@
         <v>0.49873918176039561</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>46</v>
       </c>
@@ -4608,7 +4621,7 @@
         <v>0.46527359725937273</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>45</v>
       </c>
@@ -4644,7 +4657,7 @@
         <v>0.46527359725937273</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
@@ -4680,7 +4693,7 @@
         <v>0.46527359725937273</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>43</v>
       </c>
@@ -4716,7 +4729,7 @@
         <v>0.46527359725937273</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>42</v>
       </c>
@@ -4752,7 +4765,7 @@
         <v>0.47380222267237582</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>41</v>
       </c>
@@ -4788,7 +4801,7 @@
         <v>0.43852351466490969</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>40</v>
       </c>
@@ -4824,7 +4837,7 @@
         <v>0.43852351466490969</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>39</v>
       </c>
@@ -4860,7 +4873,7 @@
         <v>0.45626283039515619</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>38</v>
       </c>
@@ -4896,7 +4909,7 @@
         <v>0.45626283039515619</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>37</v>
       </c>
@@ -4932,7 +4945,7 @@
         <v>0.45626283039515619</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>36</v>
       </c>
@@ -4968,7 +4981,7 @@
         <v>0.41859062763468652</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>35</v>
       </c>
@@ -5004,7 +5017,7 @@
         <v>0.42096182609181343</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>34</v>
       </c>
@@ -5040,7 +5053,7 @@
         <v>0.39853656803893012</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>33</v>
       </c>
@@ -5076,7 +5089,7 @@
         <v>0.42774640349545895</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>32</v>
       </c>
@@ -5112,7 +5125,7 @@
         <v>0.39899134540831654</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>31</v>
       </c>
@@ -5148,7 +5161,7 @@
         <v>0.37872485357424018</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="63" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>30</v>
       </c>
@@ -5184,7 +5197,7 @@
         <v>0.37405438632029675</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>29</v>
       </c>
